--- a/Relational Processing Ctx 2/spreadsheetEasy_RelationalProcessing_Ctx2.xlsx
+++ b/Relational Processing Ctx 2/spreadsheetEasy_RelationalProcessing_Ctx2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\PycharmProjects\BeRNN_Exp\Relational Processing Ctx 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187F544E-3501-4F7E-A982-5D30FE8CEBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ADD0C6-F3FD-4DDE-A329-6F5A2E0A033A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AQ23" sqref="AQ23"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB115" sqref="AB115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
